--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/34_Giresun_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/34_Giresun_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFA4DA8D-6DB0-4AEA-8FDC-807A2B66F9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA80BA1D-6A4E-453D-86B8-EF24955778D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="708" xr2:uid="{D11B6421-C18D-43BD-B108-EEDA89534E0C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="708" xr2:uid="{D5770B4E-C3DC-447E-9E47-0248AE8E1F3F}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="140" r:id="rId1"/>
@@ -793,13 +793,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{3B0F81C4-9F69-47A1-BFF2-35C5EBEF2743}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{D1B829CD-28EB-41CD-968C-99D4441A8297}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{2324695E-2F28-4AA6-8D50-FFDF5C054657}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{89CBDE10-0151-4EBF-A244-3883254DBBE7}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{B444A4CB-36EC-40FF-9CC6-AA0D6874A1F7}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{8F4422E5-EBEF-4C7C-8764-7EE956AD71AB}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{08CE5740-1E0A-44F7-9B86-6BFCA9F341C5}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{99776C27-0892-4951-B6C8-112B9BA7823C}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{785856BC-3723-4C04-B68D-BA346017BD47}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{4AD4AB63-1269-4D66-8389-7F00BD33568B}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{7D58C4A0-C070-4956-AE89-41FAD88499D6}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{B057DFBE-BA92-4D54-B10A-4D0A39ABC0A0}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{60F994B8-0145-4349-8C43-A72B85DAD7AC}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{FCFE0221-6BB7-4AEF-9D95-588CCFCA04A9}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1169,7 +1169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315843F0-FD8A-47DC-A602-020EB8E37099}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F8F08D5-A731-4CCF-8EEA-9BDF5E342068}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2436,7 +2436,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910C02DF-BCD1-48FC-9D2D-46D711655955}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CEE376-CE5A-4228-99A2-6B551FD3AD26}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3713,7 +3713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79EB60E7-4B61-4EE5-A960-91EB396186DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7A8714-7CFE-4C5F-B44D-5C8C0111777D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -4990,7 +4990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14F95287-9F0E-46B9-90F4-0BCF5232933E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C3590B-1B49-4E2D-B403-079B55D45E7C}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6265,7 +6265,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F01A26-048D-42A7-A011-AE85E89845EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE270CC-D7B8-4C88-B994-A38FEE0BAACA}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7528,7 +7528,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{997F2144-077A-457F-81D1-A8D327E19C92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDDF47BC-7654-45F4-B9A1-8DF6391423E2}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
